--- a/examples/benchmarks/BenchmarkResultsExample.xlsx
+++ b/examples/benchmarks/BenchmarkResultsExample.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10116"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1460" yWindow="1440" windowWidth="32140" windowHeight="17620" tabRatio="500"/>
+    <workbookView xWindow="1460" yWindow="1440" windowWidth="32140" windowHeight="17620" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -68,9 +68,6 @@
     <t>Batched Transaction Insert</t>
   </si>
   <si>
-    <t>Stock Grails Binder, No Traits</t>
-  </si>
-  <si>
     <t>Stock Grails Baseline, No Traits</t>
   </si>
   <si>
@@ -96,12 +93,15 @@
   </si>
   <si>
     <t>create: bind or set</t>
+  </si>
+  <si>
+    <t>Grails default DataBinder, No Traits</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -763,17 +763,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.33203125" customWidth="1"/>
-    <col min="2" max="2" width="27.6640625" customWidth="1"/>
+    <col min="2" max="2" width="30.6640625" customWidth="1"/>
     <col min="3" max="4" width="14.83203125" customWidth="1"/>
     <col min="5" max="5" width="16.5" customWidth="1"/>
     <col min="6" max="6" width="19.6640625" customWidth="1"/>
@@ -786,7 +786,7 @@
   <sheetData>
     <row r="1" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
@@ -795,7 +795,7 @@
     </row>
     <row r="2" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C2" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3" t="s">
@@ -841,27 +841,27 @@
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.2">
@@ -872,7 +872,7 @@
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
@@ -899,7 +899,7 @@
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -928,7 +928,7 @@
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.2">
